--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G9" s="3">
         <v>6300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>12000</v>
       </c>
-      <c r="G9" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K9" s="3">
         <v>10500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>-6200</v>
       </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-5700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>-1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,32 +1039,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>-42100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1036,38 +1095,47 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>300</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1083,8 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1176,123 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G17" s="3">
         <v>15800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>-29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>10800</v>
       </c>
-      <c r="G17" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>37500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,88 +1310,100 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-42300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-9500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-8700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-13900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,102 +1416,129 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1640,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-14600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,26 +1808,35 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1682,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1976,129 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>42300</v>
       </c>
-      <c r="F32" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>9500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-14500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2144,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-14500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2311,67 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2417,73 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,38 +2529,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2289,55 +2585,73 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2697,129 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>4400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>9300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>5000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,40 +2921,49 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2618,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +3033,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>7800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,226 +3139,265 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="F57" s="3">
         <v>1500</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>8600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>23100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>10700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>18900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>13500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>13400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>31000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>14500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>21200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>15700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,40 +3413,49 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3032,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>31900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>14900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>22200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>16000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-150400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-53700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-41400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-34400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-23700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-700</v>
       </c>
       <c r="M72" s="3">
         <v>-700</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="O72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-9200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-24100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-16300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-7800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4275,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-14500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,35 +4420,38 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>-800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3865,17 +4461,26 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,31 +4846,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4222,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4996,17 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,46 +5014,55 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5298,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5410,69 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="E8" s="3">
         <v>8600</v>
       </c>
       <c r="F8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G8" s="3">
         <v>9700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -802,55 +806,58 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -858,55 +865,58 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-6200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-7500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-5700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,35 +1065,38 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-42100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,14 +1154,14 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,52 +1205,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1235,41 +1262,44 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>37500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1277,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
+      <c r="R18" s="3">
+        <v>-100</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,55 +1346,56 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1369,44 +1403,47 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-65700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,55 +1462,58 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1481,41 +1521,44 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-67700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1523,22 +1566,25 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,41 +1698,44 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1691,55 +1743,58 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-67700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1747,22 +1802,25 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,16 +1875,19 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1835,11 +1896,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-700</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,55 +2052,58 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E32" s="3">
         <v>69700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-67700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-67700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,40 +2400,41 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2359,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,52 +2516,55 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,41 +2634,44 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2594,53 +2693,56 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,41 +2811,44 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2753,8 +2861,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2773,30 +2884,30 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2809,8 +2920,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2942,13 +3062,13 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2956,8 +3076,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2965,8 +3085,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3165,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,55 +3272,56 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3198,50 +3329,53 @@
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E59" s="3">
         <v>68900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
         <v>78800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1100</v>
       </c>
       <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,32 +3518,32 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
       </c>
       <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,34 +3565,37 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1400</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
       </c>
       <c r="G62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H62" s="3">
         <v>1600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3457,8 +3603,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E66" s="3">
         <v>80600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1100</v>
       </c>
       <c r="O66" s="3">
         <v>1100</v>
       </c>
       <c r="P66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,40 +4119,43 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-114800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-82800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-700</v>
       </c>
       <c r="N72" s="3">
         <v>-700</v>
@@ -3993,19 +4167,22 @@
         <v>-700</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="R72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="S72" s="3">
         <v>-2800</v>
       </c>
       <c r="T72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,43 +4355,46 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-74000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-26800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-24100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
@@ -4217,19 +4403,22 @@
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-67700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4435,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4447,14 +4646,14 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>-800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,52 +4973,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1100</v>
       </c>
       <c r="H89" s="3">
         <v>-1100</v>
       </c>
       <c r="I89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,11 +5067,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4858,22 +5079,22 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,11 +5244,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5029,17 +5259,17 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5052,8 +5282,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,55 +5550,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,41 +5668,44 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5461,11 +5713,11 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,146 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8600</v>
       </c>
       <c r="F8" s="3">
         <v>8600</v>
       </c>
       <c r="G8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H8" s="3">
         <v>9700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
@@ -809,58 +812,61 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -868,58 +874,61 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-7500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,38 +1084,41 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-42100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1127,13 +1146,16 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1157,14 +1179,14 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,55 +1231,56 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1265,44 +1291,47 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>37500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1310,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
+      <c r="S18" s="3">
+        <v>-100</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
@@ -1324,8 +1353,11 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,58 +1379,59 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>37900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1406,47 +1439,50 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E21" s="3">
         <v>37700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-65700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,58 +1501,61 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1524,44 +1563,47 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>35600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1569,22 +1611,25 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,44 +1749,47 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>35600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-67700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1746,58 +1797,61 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>35600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-67700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1805,22 +1859,25 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,8 +1949,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1899,11 +1959,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,58 +2121,61 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-37900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>69700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>35600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-67700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>35600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-67700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,43 +2486,44 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2449,7 +2535,7 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2460,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,55 +2608,58 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,44 +2732,47 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
       </c>
       <c r="K45" s="3">
+        <v>600</v>
+      </c>
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2696,56 +2794,59 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,44 +2918,47 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2864,8 +2971,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2887,30 +2997,30 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2923,8 +3033,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -3065,13 +3184,13 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3079,8 +3198,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3088,8 +3207,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,58 +3402,59 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3332,53 +3462,56 @@
       <c r="U57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3391,162 +3524,171 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
       </c>
       <c r="L61" s="3">
+        <v>400</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3568,37 +3710,40 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1400</v>
       </c>
       <c r="G62" s="3">
         <v>1400</v>
       </c>
       <c r="H62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3606,8 +3751,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>80600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1100</v>
       </c>
       <c r="Q66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,43 +4292,46 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-114800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-82800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-700</v>
       </c>
       <c r="O72" s="3">
         <v>-700</v>
@@ -4170,19 +4343,22 @@
         <v>-700</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="S72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="T72" s="3">
         <v>-2800</v>
       </c>
       <c r="U72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,46 +4540,49 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-74000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-26800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-24100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
@@ -4406,19 +4591,22 @@
         <v>-800</v>
       </c>
       <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>35600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-67700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4819,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4637,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4649,14 +4847,14 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>-800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4672,8 +4870,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,55 +5189,58 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1100</v>
       </c>
       <c r="I89" s="3">
         <v>-1100</v>
       </c>
       <c r="J89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5070,11 +5290,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5082,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5247,11 +5476,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5262,17 +5491,17 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5285,8 +5514,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,58 +5795,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,44 +5919,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5716,11 +5967,11 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,153 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8600</v>
       </c>
       <c r="G8" s="3">
         <v>8600</v>
       </c>
       <c r="H8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I8" s="3">
         <v>9700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
@@ -815,61 +819,64 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -877,61 +884,64 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-7500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,41 +1104,44 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-42100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1181,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1182,14 +1205,14 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,58 +1258,59 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-29400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1294,47 +1321,50 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>37500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1342,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
+      <c r="T18" s="3">
+        <v>-100</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,61 +1413,62 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>37900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
@@ -1442,50 +1476,53 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-65700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,61 +1541,64 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1566,47 +1606,50 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1614,22 +1657,25 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,47 +1801,50 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-67700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1800,61 +1852,64 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-67700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1862,22 +1917,25 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1952,8 +2013,8 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1962,11 +2023,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,61 +2191,64 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-37900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>69700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-67700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-67700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,46 +2573,47 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2538,7 +2625,7 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,58 +2701,61 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,47 +2831,50 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
       </c>
       <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2797,59 +2896,62 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
       <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -2859,31 +2961,34 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2921,47 +3026,50 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2974,8 +3082,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2983,13 +3091,16 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>2600</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
@@ -3000,30 +3111,30 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3036,8 +3147,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,7 +3298,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3187,13 +3307,13 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3201,8 +3321,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3210,8 +3330,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,61 +3533,62 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3465,56 +3596,59 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3527,171 +3661,180 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E60" s="3">
         <v>18000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
       </c>
       <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>400</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3713,40 +3856,43 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1400</v>
       </c>
       <c r="H62" s="3">
         <v>1400</v>
       </c>
       <c r="I62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E66" s="3">
         <v>19500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>80600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,46 +4466,49 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-82800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-700</v>
       </c>
       <c r="P72" s="3">
         <v>-700</v>
@@ -4346,19 +4520,22 @@
         <v>-700</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="T72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="U72" s="3">
         <v>-2800</v>
       </c>
       <c r="V72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,49 +4726,52 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-74000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-26800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-24100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
@@ -4594,19 +4780,22 @@
         <v>-800</v>
       </c>
       <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-67700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,7 +5028,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4838,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4850,14 +5049,14 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>-800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,58 +5406,61 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1100</v>
       </c>
       <c r="J89" s="3">
         <v>-1100</v>
       </c>
       <c r="K89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,13 +5498,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5293,11 +5514,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5305,22 +5526,22 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5479,11 +5709,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5494,17 +5724,17 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5517,8 +5747,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,61 +6041,64 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,47 +6171,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5970,11 +6222,11 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,160 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8600</v>
       </c>
       <c r="H8" s="3">
         <v>8600</v>
       </c>
       <c r="I8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J8" s="3">
         <v>9700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
@@ -822,64 +826,67 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -887,64 +894,67 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-7500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-5700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,44 +1124,47 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-42100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1207,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1208,14 +1231,14 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>1300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,61 +1285,62 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1324,50 +1351,53 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1375,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
+      <c r="U18" s="3">
+        <v>-100</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,64 +1447,65 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
@@ -1479,53 +1513,56 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-65700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,64 +1581,67 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1609,50 +1649,53 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1660,22 +1703,25 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,50 +1853,53 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1855,64 +1907,67 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-67700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14600</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1920,22 +1975,25 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2016,8 +2077,8 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2026,11 +2087,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,64 +2261,67 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>69700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-67700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-67700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,49 +2660,50 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2628,7 +2715,7 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,61 +2794,64 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,50 +2930,53 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -2964,17 +3066,20 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,8 +3095,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3029,50 +3134,53 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3085,8 +3193,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3094,17 +3202,20 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3114,30 +3225,30 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3310,13 +3430,13 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3324,8 +3444,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3333,8 +3453,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,64 +3664,65 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3599,59 +3730,62 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -3664,180 +3798,189 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E59" s="3">
         <v>12200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>20300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3859,43 +4002,46 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1400</v>
       </c>
       <c r="I62" s="3">
         <v>1400</v>
       </c>
       <c r="J62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E66" s="3">
         <v>21800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>80600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1100</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
       <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,49 +4640,52 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-150400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-700</v>
       </c>
       <c r="Q72" s="3">
         <v>-700</v>
@@ -4523,19 +4697,22 @@
         <v>-700</v>
       </c>
       <c r="T72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="U72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="V72" s="3">
         <v>-2800</v>
       </c>
       <c r="W72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,52 +4912,55 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-74000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-26800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-24100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-800</v>
       </c>
       <c r="R76" s="3">
         <v>-800</v>
@@ -4783,19 +4969,22 @@
         <v>-800</v>
       </c>
       <c r="T76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-67700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,19 +5217,20 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5040,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -5052,14 +5251,14 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>-800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,61 +5623,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1100</v>
       </c>
       <c r="K89" s="3">
         <v>-1100</v>
       </c>
       <c r="L89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,16 +5719,17 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5517,11 +5738,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5529,22 +5750,22 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,17 +5921,20 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5712,11 +5942,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5727,17 +5957,17 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5750,8 +5980,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,64 +6287,67 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,50 +6423,53 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6225,11 +6477,11 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,167 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8600</v>
       </c>
       <c r="I8" s="3">
         <v>8600</v>
       </c>
       <c r="J8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
@@ -829,67 +833,70 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -897,67 +904,70 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-6200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-7500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-5700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,47 +1144,50 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-42100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1233,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1234,14 +1257,14 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>1300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,64 +1312,65 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-29400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1354,53 +1381,56 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1408,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
+      <c r="V18" s="3">
+        <v>-100</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,67 +1481,68 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>37900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
@@ -1516,56 +1550,59 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E21" s="3">
         <v>4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>37700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-65700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,67 +1621,70 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1652,53 +1692,56 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1706,22 +1749,25 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,53 +1905,56 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-67700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1910,67 +1962,70 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-67700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1978,22 +2033,25 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2080,8 +2141,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2090,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,67 +2331,70 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-37900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>69700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-67700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-67700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,52 +2747,53 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2718,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,64 +2887,67 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,53 +3029,56 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3001,65 +3100,68 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3069,20 +3171,23 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3203,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3137,53 +3242,56 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3196,8 +3304,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3205,20 +3313,23 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3228,30 +3339,30 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3264,8 +3375,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3526,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3424,7 +3544,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3433,13 +3553,13 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3447,8 +3567,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3456,8 +3576,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3668,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,67 +3795,68 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -3733,62 +3864,65 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -3801,189 +3935,198 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
       </c>
       <c r="S60" s="3">
         <v>1100</v>
       </c>
       <c r="T60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>500</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>400</v>
       </c>
       <c r="O61" s="3">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4005,46 +4148,49 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1400</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
       </c>
       <c r="K62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L62" s="3">
         <v>1600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4052,8 +4198,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>15200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>80600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1100</v>
       </c>
       <c r="S66" s="3">
         <v>1100</v>
       </c>
       <c r="T66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,52 +4814,55 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-122600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-114800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-82800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-34400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-700</v>
       </c>
       <c r="R72" s="3">
         <v>-700</v>
@@ -4700,19 +4874,22 @@
         <v>-700</v>
       </c>
       <c r="U72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="V72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="W72" s="3">
         <v>-2800</v>
       </c>
       <c r="X72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,55 +5098,58 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-74000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-26800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-24100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-800</v>
       </c>
       <c r="S76" s="3">
         <v>-800</v>
@@ -4972,19 +5158,22 @@
         <v>-800</v>
       </c>
       <c r="U76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-67700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,13 +5426,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5242,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -5254,14 +5453,14 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>-800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5277,8 +5476,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,55 +5852,55 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1100</v>
       </c>
       <c r="L89" s="3">
         <v>-1100</v>
       </c>
       <c r="M89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5731,8 +5952,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5741,11 +5962,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5753,22 +5974,22 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,11 +6163,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5945,11 +6175,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5960,17 +6190,17 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6213,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,67 +6533,70 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,53 +6675,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6480,11 +6732,11 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,346 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-6200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-7500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,53 +1180,59 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-11800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-42100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1218,16 +1257,22 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1236,10 +1281,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1260,17 +1305,17 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>1300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,70 +1364,72 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>-9300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-29400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1384,79 +1437,91 @@
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>10500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>37500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,133 +1547,141 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>37900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-69700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-42300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-13400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-9500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>37700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-65700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-8700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-18100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-13900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,150 +1697,168 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>35600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-67700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-14600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>35600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-67700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-14600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>35600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-67700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-22100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-14600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,24 +2265,24 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-37900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>69700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>42300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>13400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>9500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>35600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-67700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-22100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-19600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-14500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>35600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-67700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-22100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-19600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-14500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,34 +2919,36 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>700</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2784,22 +2957,22 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2808,10 +2981,10 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2819,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2899,7 +3084,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
@@ -2908,52 +3093,52 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
       </c>
       <c r="M43" s="3">
         <v>1000</v>
       </c>
       <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,59 +3223,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3103,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3185,15 +3394,15 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3206,11 +3415,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3245,59 +3454,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2000</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
       </c>
       <c r="I48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3307,68 +3522,74 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3378,17 +3599,23 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3538,52 +3777,52 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,139 +4055,147 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -3938,161 +4205,179 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>68900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>23100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>18900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>78800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>29200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>31000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>21200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
@@ -4101,38 +4386,38 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4151,61 +4436,67 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>80600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>31900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>22200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,58 +5158,64 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-116000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-122200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-125700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-122600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-114800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-150400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-82800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-60600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-53700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-41400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-34400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-23700</v>
       </c>
       <c r="Q72" s="3">
         <v>-15200</v>
       </c>
       <c r="R72" s="3">
-        <v>-700</v>
+        <v>-23700</v>
       </c>
       <c r="S72" s="3">
-        <v>-700</v>
+        <v>-15200</v>
       </c>
       <c r="T72" s="3">
         <v>-700</v>
@@ -4877,19 +5224,25 @@
         <v>-700</v>
       </c>
       <c r="V72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="W72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-14900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-16000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-12300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-74000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-26800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-12900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-24100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-7800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-800</v>
       </c>
       <c r="U76" s="3">
         <v>-800</v>
       </c>
       <c r="V76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>35600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-67700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-22100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-19600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-14500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5429,44 +5826,44 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5479,17 +5876,23 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,19 +6270,25 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1000</v>
       </c>
       <c r="G89" s="3">
         <v>-900</v>
@@ -5864,58 +6297,64 @@
         <v>-1000</v>
       </c>
       <c r="I89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,19 +6380,21 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5965,37 +6406,37 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,29 +6622,29 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6193,20 +6652,20 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6216,17 +6675,23 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,187 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1200</v>
       </c>
       <c r="F8" s="3">
         <v>1200</v>
       </c>
       <c r="G8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8600</v>
       </c>
       <c r="L8" s="3">
         <v>8600</v>
       </c>
       <c r="M8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N8" s="3">
         <v>9700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,64 +868,64 @@
         <v>1000</v>
       </c>
       <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
+      <c r="Y9" s="3">
+        <v>0</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
@@ -926,76 +933,79 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-7500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-5700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,56 +1203,59 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-11800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-42100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1263,19 +1283,22 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1287,7 +1310,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1311,14 +1334,14 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>1300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,73 +1392,74 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-9300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-29400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
@@ -1443,62 +1470,65 @@
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1000</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1506,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
+      <c r="Y18" s="3">
+        <v>-100</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,76 +1582,77 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>37900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
@@ -1626,65 +1660,68 @@
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>37700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-65700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-13900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1780,62 +1820,65 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1843,22 +1886,25 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,62 +2060,65 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14600</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -2074,76 +2126,79 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-67700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14600</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2151,22 +2206,25 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,8 +2332,8 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2281,11 +2342,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,76 +2540,79 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-37900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>69700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-67700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-67700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,61 +3007,62 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E41" s="3">
         <v>6100</v>
       </c>
       <c r="F41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2987,7 +3074,7 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3090,58 +3183,58 @@
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,62 +3325,65 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>600</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
+        <v>600</v>
+      </c>
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3306,74 +3405,77 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E46" s="3">
         <v>6700</v>
       </c>
       <c r="F46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
       <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3400,12 +3505,12 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3421,8 +3526,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3460,62 +3565,65 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3528,8 +3636,8 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3537,29 +3645,32 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3569,30 +3680,30 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3605,8 +3716,8 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3783,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3792,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3801,13 +3921,13 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3815,8 +3935,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3824,8 +3944,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,74 +4045,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,64 +4200,64 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,62 +4277,62 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
@@ -4211,162 +4345,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>800</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1100</v>
       </c>
       <c r="V60" s="3">
         <v>1100</v>
       </c>
       <c r="W60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,50 +4520,50 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>400</v>
       </c>
       <c r="Q61" s="3">
         <v>400</v>
       </c>
       <c r="R61" s="3">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4453,44 +4599,44 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1400</v>
       </c>
       <c r="M62" s="3">
         <v>1400</v>
       </c>
       <c r="N62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O62" s="3">
         <v>1600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1100</v>
       </c>
       <c r="V66" s="3">
         <v>1100</v>
       </c>
       <c r="W66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,61 +5335,64 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-121200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-119000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-122200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-125700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-122600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-82800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-700</v>
       </c>
       <c r="U72" s="3">
         <v>-700</v>
@@ -5230,19 +5404,22 @@
         <v>-700</v>
       </c>
       <c r="X72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="Y72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="3">
         <v>-2800</v>
       </c>
       <c r="AA72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,64 +5655,67 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-74000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-26800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-800</v>
       </c>
       <c r="V76" s="3">
         <v>-800</v>
@@ -5538,19 +5724,22 @@
         <v>-800</v>
       </c>
       <c r="X76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-67700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5832,13 +6031,13 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5847,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -5859,14 +6058,14 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>-800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5882,8 +6081,8 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,73 +6490,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-900</v>
       </c>
       <c r="G89" s="3">
         <v>-900</v>
       </c>
       <c r="H89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1100</v>
       </c>
       <c r="O89" s="3">
         <v>-1100</v>
       </c>
       <c r="P89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6412,11 +6633,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -6424,22 +6645,22 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,29 +6840,32 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6643,11 +6873,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6658,17 +6888,17 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6681,8 +6911,8 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,76 +7270,79 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,62 +7430,65 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7244,11 +7496,11 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,194 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>8600</v>
       </c>
       <c r="M8" s="3">
         <v>8600</v>
       </c>
       <c r="N8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O8" s="3">
         <v>9700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
@@ -856,13 +860,16 @@
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
@@ -871,64 +878,64 @@
         <v>1000</v>
       </c>
       <c r="G9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
+      <c r="Z9" s="3">
+        <v>0</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
@@ -936,79 +943,82 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-6200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-7500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-5700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,50 +1235,50 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-11800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1313,7 +1336,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1337,14 +1360,14 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>1300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,76 +1419,77 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-9300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
@@ -1473,8 +1500,11 @@
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,56 +1512,56 @@
         <v>-1000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1539,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
+      <c r="Z18" s="3">
+        <v>-100</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,79 +1616,80 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
@@ -1663,68 +1697,71 @@
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-65700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-13900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1755,67 +1795,67 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
@@ -1823,65 +1863,68 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-14600</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1889,22 +1932,25 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,65 +2112,68 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-67700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14600</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -2129,79 +2181,82 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-67700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14600</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2209,22 +2264,25 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,31 +2361,34 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -2335,8 +2396,8 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2345,11 +2406,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,79 +2610,82 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>69700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-67700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-67700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,64 +3094,65 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>6100</v>
       </c>
       <c r="F41" s="3">
         <v>6100</v>
       </c>
       <c r="G41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -3077,7 +3164,7 @@
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,13 +3258,16 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
@@ -3186,58 +3279,58 @@
         <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,65 +3424,68 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>600</v>
       </c>
       <c r="Q45" s="3">
         <v>600</v>
       </c>
       <c r="R45" s="3">
+        <v>600</v>
+      </c>
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3408,77 +3507,80 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E46" s="3">
         <v>6600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>6700</v>
       </c>
       <c r="F46" s="3">
         <v>6700</v>
       </c>
       <c r="G46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
+        <v>400</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3508,12 +3613,12 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3529,8 +3634,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3568,65 +3673,68 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3639,8 +3747,8 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3648,32 +3756,35 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3683,30 +3794,30 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3719,8 +3830,8 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4005,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3906,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3915,7 +4035,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3924,13 +4044,13 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3938,8 +4058,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3947,8 +4067,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,77 +4171,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>400</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
       </c>
       <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4318,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -4203,64 +4334,64 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
@@ -4268,74 +4399,77 @@
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
@@ -4348,173 +4482,182 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>800</v>
       </c>
       <c r="X59" s="3">
         <v>800</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1100</v>
       </c>
       <c r="W60" s="3">
         <v>1100</v>
       </c>
       <c r="X60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4523,50 +4666,50 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>400</v>
       </c>
       <c r="R61" s="3">
         <v>400</v>
       </c>
       <c r="S61" s="3">
+        <v>400</v>
+      </c>
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4588,13 +4731,16 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>6700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -4602,44 +4748,44 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1400</v>
       </c>
       <c r="N62" s="3">
         <v>1400</v>
       </c>
       <c r="O62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P62" s="3">
         <v>1600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4647,8 +4793,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1100</v>
       </c>
       <c r="W66" s="3">
         <v>1100</v>
       </c>
       <c r="X66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,64 +5509,67 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-121200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-122200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-125700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-700</v>
       </c>
       <c r="V72" s="3">
         <v>-700</v>
@@ -5407,19 +5581,22 @@
         <v>-700</v>
       </c>
       <c r="Y72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="Z72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="3">
         <v>-2800</v>
       </c>
       <c r="AB72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,67 +5841,70 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-74000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-26800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-24100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-7800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-800</v>
       </c>
       <c r="W76" s="3">
         <v>-800</v>
@@ -5727,19 +5913,22 @@
         <v>-800</v>
       </c>
       <c r="Y76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-67700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6034,13 +6233,13 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -6049,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -6061,14 +6260,14 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>-800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6084,8 +6283,8 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,67 +6719,67 @@
         <v>-1000</v>
       </c>
       <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-900</v>
       </c>
       <c r="H89" s="3">
         <v>-900</v>
       </c>
       <c r="I89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1100</v>
       </c>
       <c r="P89" s="3">
         <v>-1100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6636,11 +6857,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6648,22 +6869,22 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,32 +7070,35 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6876,11 +7106,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6891,17 +7121,17 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6914,8 +7144,8 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,79 +7516,82 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,65 +7682,68 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7499,11 +7751,11 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,397 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
+      <c r="AB8" s="3">
+        <v>0</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1000</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
       </c>
       <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>12000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>15700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>4</v>
+      <c r="AB9" s="3">
+        <v>0</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-6200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-7500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-5700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>4</v>
+      <c r="AB10" s="3">
+        <v>0</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,56 +1274,56 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-11800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-42100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1309,16 +1348,22 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1327,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1339,10 +1384,10 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1363,17 +1408,17 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>1300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,82 +1471,84 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-9300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>15300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>-29400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>100</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
@@ -1503,91 +1556,103 @@
       <c r="AC17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>37500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,157 +1682,165 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>37900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-69700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-42300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-13400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-9500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
+      <c r="AB20" s="3">
+        <v>0</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>37700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-65700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-18100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>8200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-5500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-13900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,174 +1856,192 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>35600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-67700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-19700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-14600</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>35600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-67700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-19700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-14600</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>35600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-67700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-22100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-19700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-14600</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2390,33 +2511,33 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-700</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-37900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>69700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>42300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>13400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>9500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
+      <c r="AB32" s="3">
+        <v>0</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>35600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-67700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-22100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-19600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-14500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>35600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-67700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-22100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-19600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-14500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,46 +3266,48 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
+        <v>700</v>
+      </c>
+      <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3143,22 +3316,22 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
@@ -3167,10 +3340,10 @@
         <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3178,8 +3351,14 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,19 +3440,25 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -3282,7 +3467,7 @@
         <v>500</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
@@ -3291,52 +3476,52 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>1000</v>
       </c>
       <c r="R43" s="3">
+        <v>700</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
+      <c r="AA43" s="3">
+        <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,71 +3618,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
@@ -3510,121 +3707,133 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F46" s="3">
         <v>5900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3637,11 +3846,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3676,71 +3885,77 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F48" s="3">
         <v>10500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2000</v>
       </c>
       <c r="L48" s="3">
         <v>2200</v>
       </c>
       <c r="M48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3750,80 +3965,86 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F49" s="3">
         <v>9100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>2200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>9300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3833,17 +4054,23 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>0</v>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,19 +4241,25 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4029,52 +4268,52 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F54" s="3">
         <v>25900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,163 +4578,171 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>200</v>
-      </c>
       <c r="AB57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
@@ -4485,197 +4752,215 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>68900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>19200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>23100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>18900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>13500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>78800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>29200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>31000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>14500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>21200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>15700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>5400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
@@ -4684,38 +4969,38 @@
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4734,73 +5019,79 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F66" s="3">
         <v>16200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>80600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>31000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>22200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>16000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,70 +5853,76 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-127500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-123100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-122000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-121200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-119000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-116000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-122200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-125700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-122600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-114800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-150400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-82800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-60600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-53700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-41400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-34400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-23700</v>
       </c>
       <c r="U72" s="3">
         <v>-15200</v>
       </c>
       <c r="V72" s="3">
-        <v>-700</v>
+        <v>-23700</v>
       </c>
       <c r="W72" s="3">
-        <v>-700</v>
+        <v>-15200</v>
       </c>
       <c r="X72" s="3">
         <v>-700</v>
@@ -5584,19 +5931,25 @@
         <v>-700</v>
       </c>
       <c r="Z72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="AA72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F76" s="3">
         <v>9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-16000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-12300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-74000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-26800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-12900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-9200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-24100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-7700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-16300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-7800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-800</v>
       </c>
       <c r="Y76" s="3">
         <v>-800</v>
       </c>
       <c r="Z76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>35600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-67700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-22100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-19600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-14500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,16 +6607,18 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -6236,44 +6633,44 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>-800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6286,17 +6683,23 @@
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>0</v>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,31 +7137,37 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1000</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
@@ -6743,58 +7176,64 @@
         <v>-1000</v>
       </c>
       <c r="M89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,22 +7263,24 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6860,37 +7301,37 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,50 +7526,56 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7124,20 +7583,20 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7147,17 +7606,23 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-200</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,214 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1200</v>
       </c>
       <c r="K8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>8600</v>
       </c>
       <c r="P8" s="3">
         <v>8600</v>
       </c>
       <c r="Q8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R8" s="3">
         <v>9700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
+      <c r="AC8" s="3">
+        <v>0</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>4</v>
@@ -876,22 +880,25 @@
       <c r="AE8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1000</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -900,64 +907,64 @@
         <v>1000</v>
       </c>
       <c r="J9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>100</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>4</v>
+      <c r="AC9" s="3">
+        <v>0</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>4</v>
@@ -965,88 +972,91 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-6200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-7500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-5700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>100</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
       <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>4</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,59 +1294,59 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-11800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-42100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1354,19 +1374,22 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1378,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1390,7 +1413,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1414,14 +1437,14 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>1300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>200</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,85 +1499,86 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>7300</v>
       </c>
       <c r="E17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-29400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>100</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
@@ -1562,74 +1589,77 @@
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-2200</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1000</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
       </c>
       <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4600</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1637,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
+      <c r="AC18" s="3">
+        <v>-100</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>4</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1699,73 +1733,73 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
+      <c r="AC20" s="3">
+        <v>0</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>4</v>
@@ -1773,77 +1807,80 @@
       <c r="AE20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>37700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-65700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-13900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,19 +1899,22 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1883,67 +1923,67 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>4</v>
+      <c r="AC22" s="3">
+        <v>0</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>4</v>
@@ -1951,74 +1991,77 @@
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-67700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-14600</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -2026,22 +2069,25 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
         <v>0</v>
       </c>
       <c r="AD23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,74 +2267,77 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-67700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-14600</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2293,88 +2345,91 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
         <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-67700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-14600</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2382,22 +2437,25 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
         <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2517,8 +2578,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2526,8 +2587,8 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2536,11 +2597,11 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-700</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2767,73 +2837,73 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>69700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
+      <c r="AC32" s="3">
+        <v>0</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>4</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-67700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-14500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
         <v>0</v>
       </c>
       <c r="AD33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-67700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-14500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
         <v>0</v>
       </c>
       <c r="AD35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,73 +3354,74 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6100</v>
       </c>
       <c r="I41" s="3">
         <v>6100</v>
       </c>
       <c r="J41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
-      </c>
-      <c r="X41" s="3">
-        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -3346,7 +3433,7 @@
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,22 +3536,25 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -3473,58 +3566,58 @@
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
-      </c>
-      <c r="X43" s="3">
-        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
+      <c r="AB43" s="3">
+        <v>0</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,74 +3720,77 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>600</v>
       </c>
       <c r="T45" s="3">
         <v>600</v>
       </c>
       <c r="U45" s="3">
+        <v>600</v>
+      </c>
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
@@ -3713,86 +3812,89 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>6700</v>
       </c>
       <c r="I46" s="3">
         <v>6700</v>
       </c>
       <c r="J46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2600</v>
-      </c>
-      <c r="X46" s="3">
-        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>400</v>
       </c>
       <c r="Z46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
       <c r="AC46" s="3">
         <v>0</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3828,15 +3933,15 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3852,8 +3957,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3891,74 +3996,77 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
         <v>15000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3971,8 +4079,8 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD48" s="3">
         <v>0</v>
@@ -3980,41 +4088,44 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4024,30 +4135,30 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>2200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4060,8 +4171,8 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC49" s="3">
-        <v>0</v>
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4256,13 +4376,13 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -4274,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -4283,7 +4403,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -4292,13 +4412,13 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4306,8 +4426,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -4315,8 +4435,8 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,86 +4548,89 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E54" s="3">
         <v>26600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8200</v>
-      </c>
-      <c r="X54" s="3">
-        <v>400</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
       </c>
       <c r="Z54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
       <c r="AC54" s="3">
         <v>0</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,22 +4710,23 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -4604,64 +4735,64 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
       <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
       <c r="AC57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="3">
         <v>200</v>
@@ -4669,83 +4800,86 @@
       <c r="AE57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
@@ -4758,186 +4892,195 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>68900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>800</v>
       </c>
       <c r="AA59" s="3">
         <v>800</v>
       </c>
       <c r="AB59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>100</v>
       </c>
-      <c r="AD59" s="3">
-        <v>0</v>
-      </c>
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1100</v>
       </c>
       <c r="Z60" s="3">
         <v>1100</v>
       </c>
       <c r="AA60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>300</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>200</v>
       </c>
       <c r="AE60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4945,14 +5088,14 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4960,50 +5103,50 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
       <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>400</v>
       </c>
       <c r="U61" s="3">
         <v>400</v>
       </c>
       <c r="V61" s="3">
+        <v>400</v>
+      </c>
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -5025,67 +5168,70 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E62" s="3">
         <v>9200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1400</v>
       </c>
       <c r="Q62" s="3">
         <v>1400</v>
       </c>
       <c r="R62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S62" s="3">
         <v>1600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -5093,8 +5239,8 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E66" s="3">
         <v>22700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>80600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1100</v>
       </c>
       <c r="Z66" s="3">
         <v>1100</v>
       </c>
       <c r="AA66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>300</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>200</v>
       </c>
       <c r="AE66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,73 +6030,76 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-132000</v>
       </c>
       <c r="E72" s="3">
+        <v>-129300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-127500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-123100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-122000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-121200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-119000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-125700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-122600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-82800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-60600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-700</v>
       </c>
       <c r="Y72" s="3">
         <v>-700</v>
@@ -5937,19 +6111,22 @@
         <v>-700</v>
       </c>
       <c r="AB72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="AC72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="3">
         <v>-2800</v>
       </c>
       <c r="AE72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,76 +6398,79 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>1800</v>
       </c>
       <c r="E76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-74000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-24100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-7700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-16300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-7800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-800</v>
       </c>
       <c r="Z76" s="3">
         <v>-800</v>
@@ -6293,19 +6479,22 @@
         <v>-800</v>
       </c>
       <c r="AB76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD76" s="3">
-        <v>-200</v>
       </c>
       <c r="AE76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-67700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-14500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
         <v>0</v>
       </c>
       <c r="AD81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6618,10 +6817,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -6639,13 +6838,13 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6654,10 +6853,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -6666,14 +6865,14 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>-800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6689,8 +6888,8 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,85 +7357,88 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1000</v>
       </c>
       <c r="G89" s="3">
         <v>-1000</v>
       </c>
       <c r="H89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-900</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
       </c>
       <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1100</v>
       </c>
       <c r="S89" s="3">
         <v>-1100</v>
       </c>
       <c r="T89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,25 +7485,26 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -7307,11 +7528,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -7319,22 +7540,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,41 +7759,44 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7574,11 +7804,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -7589,17 +7819,17 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7612,8 +7842,8 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
+      <c r="AC94" s="3">
+        <v>0</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>4</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,88 +8253,91 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0</v>
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD100" s="3">
         <v>0</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,74 +8437,77 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>-1000</v>
       </c>
       <c r="F102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8263,11 +8515,11 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLSS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>TLSS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,221 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
       </c>
       <c r="L8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>8600</v>
       </c>
       <c r="Q8" s="3">
         <v>8600</v>
       </c>
       <c r="R8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="S8" s="3">
         <v>9700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>4</v>
+      <c r="AD8" s="3">
+        <v>0</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>4</v>
@@ -883,25 +887,28 @@
       <c r="AF8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1000</v>
       </c>
       <c r="I9" s="3">
         <v>1000</v>
@@ -910,64 +917,64 @@
         <v>1000</v>
       </c>
       <c r="K9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>4</v>
+      <c r="AD9" s="3">
+        <v>0</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>4</v>
@@ -975,91 +982,94 @@
       <c r="AF9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-6200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-7500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-5700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>100</v>
       </c>
       <c r="AB10" s="3">
         <v>100</v>
       </c>
       <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>4</v>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,8 +1114,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1207,11 @@
       <c r="AF12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1302,11 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1297,59 +1317,59 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-11800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-42100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1377,13 +1397,16 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1392,7 +1415,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1404,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1416,7 +1439,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1440,14 +1463,14 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>1300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>200</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,88 +1526,89 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>7300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-9300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-29400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>100</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
@@ -1592,77 +1619,80 @@
       <c r="AF17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1000</v>
       </c>
       <c r="H18" s="3">
         <v>-1000</v>
       </c>
       <c r="I18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1670,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>4</v>
+      <c r="AD18" s="3">
+        <v>-100</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>4</v>
@@ -1684,8 +1714,11 @@
       <c r="AF18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,13 +1751,14 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1736,73 +1770,73 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-69700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-600</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>4</v>
+      <c r="AD20" s="3">
+        <v>0</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>4</v>
@@ -1810,80 +1844,83 @@
       <c r="AF20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>37700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1902,22 +1939,25 @@
       <c r="AF21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1926,67 +1966,67 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
+      <c r="AD22" s="3">
+        <v>0</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>4</v>
@@ -1994,77 +2034,80 @@
       <c r="AF22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
@@ -2072,22 +2115,25 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-700</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
         <v>0</v>
       </c>
       <c r="AE23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2224,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,77 +2319,80 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2348,91 +2400,94 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-700</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
         <v>0</v>
       </c>
       <c r="AE26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-22100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2440,22 +2495,25 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-700</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
         <v>0</v>
       </c>
       <c r="AE27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2581,8 +2642,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2651,8 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2600,11 +2661,11 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-700</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,13 +2889,16 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2840,73 +2910,73 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>69700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>600</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>4</v>
+      <c r="AD32" s="3">
+        <v>0</v>
       </c>
       <c r="AE32" s="3" t="s">
         <v>4</v>
@@ -2914,100 +2984,106 @@
       <c r="AF32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-700</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
         <v>0</v>
       </c>
       <c r="AE33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,197 +3174,206 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-700</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
         <v>0</v>
       </c>
       <c r="AE35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,76 +3441,77 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6100</v>
       </c>
       <c r="J41" s="3">
         <v>6100</v>
       </c>
       <c r="K41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
@@ -3436,7 +3523,7 @@
         <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
@@ -3447,8 +3534,11 @@
       <c r="AF41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3539,25 +3629,28 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -3569,58 +3662,58 @@
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>300</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
       </c>
       <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
+      <c r="AC43" s="3">
+        <v>0</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>4</v>
@@ -3631,8 +3724,11 @@
       <c r="AF43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3723,8 +3819,11 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3732,68 +3831,68 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
-      </c>
-      <c r="T45" s="3">
-        <v>600</v>
       </c>
       <c r="U45" s="3">
         <v>600</v>
       </c>
       <c r="V45" s="3">
+        <v>600</v>
+      </c>
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
@@ -3815,89 +3914,92 @@
       <c r="AF45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>6700</v>
       </c>
       <c r="J46" s="3">
         <v>6700</v>
       </c>
       <c r="K46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>400</v>
       </c>
       <c r="Z46" s="3">
         <v>400</v>
       </c>
       <c r="AA46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
       <c r="AD46" s="3">
         <v>0</v>
       </c>
@@ -3907,8 +4009,11 @@
       <c r="AF46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3936,15 +4041,15 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3960,8 +4065,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3999,77 +4104,80 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
@@ -4082,8 +4190,8 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD48" s="3">
-        <v>0</v>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE48" s="3">
         <v>0</v>
@@ -4091,44 +4199,47 @@
       <c r="AF48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4138,30 +4249,30 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>2200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5000</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4174,8 +4285,8 @@
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD49" s="3">
-        <v>0</v>
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE49" s="3">
         <v>0</v>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4379,13 +4499,13 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -4397,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -4406,7 +4526,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -4415,13 +4535,13 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4429,8 +4549,8 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -4438,8 +4558,8 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,89 +4674,92 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8200</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>400</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3">
-        <v>0</v>
-      </c>
       <c r="AD54" s="3">
         <v>0</v>
       </c>
@@ -4643,8 +4769,11 @@
       <c r="AF54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,25 +4841,26 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -4738,64 +4869,64 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
       <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
       <c r="AD57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="3">
         <v>200</v>
@@ -4803,8 +4934,11 @@
       <c r="AF57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4812,77 +4946,77 @@
         <v>6700</v>
       </c>
       <c r="E58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
@@ -4895,8 +5029,11 @@
       <c r="AF58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4904,201 +5041,207 @@
         <v>4900</v>
       </c>
       <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>68900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>800</v>
       </c>
       <c r="AB59" s="3">
         <v>800</v>
       </c>
       <c r="AC59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
         <v>100</v>
       </c>
-      <c r="AE59" s="3">
-        <v>0</v>
-      </c>
       <c r="AF59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>31000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1100</v>
       </c>
       <c r="AA60" s="3">
         <v>1100</v>
       </c>
       <c r="AB60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>300</v>
-      </c>
-      <c r="AE60" s="3">
-        <v>200</v>
       </c>
       <c r="AF60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
       </c>
       <c r="F61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -5106,50 +5249,50 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
       </c>
       <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>800</v>
-      </c>
-      <c r="U61" s="3">
-        <v>400</v>
       </c>
       <c r="V61" s="3">
         <v>400</v>
       </c>
       <c r="W61" s="3">
+        <v>400</v>
+      </c>
+      <c r="X61" s="3">
         <v>1000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -5171,70 +5314,73 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E62" s="3">
         <v>8400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1400</v>
       </c>
       <c r="R62" s="3">
         <v>1400</v>
       </c>
       <c r="S62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T62" s="3">
         <v>1600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>500</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -5242,8 +5388,8 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5263,8 +5409,11 @@
       <c r="AF62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E66" s="3">
         <v>22900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>80600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1100</v>
       </c>
       <c r="AA66" s="3">
         <v>1100</v>
       </c>
       <c r="AB66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>300</v>
-      </c>
-      <c r="AE66" s="3">
-        <v>200</v>
       </c>
       <c r="AF66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,76 +6204,79 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>-132000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-127500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-122000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-121200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-119000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-116000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-125700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-122600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-114800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-150400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-82800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-700</v>
       </c>
       <c r="Z72" s="3">
         <v>-700</v>
@@ -6114,19 +6288,22 @@
         <v>-700</v>
       </c>
       <c r="AC72" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="AD72" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="3">
         <v>-2800</v>
       </c>
       <c r="AF72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="AG72" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,79 +6584,82 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-26800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-24100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-7700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-16300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-800</v>
       </c>
       <c r="AA76" s="3">
         <v>-800</v>
@@ -6482,19 +6668,22 @@
         <v>-800</v>
       </c>
       <c r="AC76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-300</v>
-      </c>
-      <c r="AE76" s="3">
-        <v>-200</v>
       </c>
       <c r="AF76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,197 +6774,206 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-700</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
         <v>0</v>
       </c>
       <c r="AE81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AF81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6820,10 +7019,10 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -6841,13 +7040,13 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6856,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -6868,14 +7067,14 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>-800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6891,8 +7090,8 @@
       <c r="AC83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD83" s="3">
-        <v>0</v>
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE83" s="3">
         <v>0</v>
@@ -6900,8 +7099,11 @@
       <c r="AF83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,88 +7574,91 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1000</v>
       </c>
       <c r="H89" s="3">
         <v>-1000</v>
       </c>
       <c r="I89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-900</v>
       </c>
       <c r="L89" s="3">
         <v>-900</v>
       </c>
       <c r="M89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1100</v>
       </c>
       <c r="T89" s="3">
         <v>-1100</v>
       </c>
       <c r="U89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD89" s="3">
         <v>0</v>
@@ -7452,8 +7669,11 @@
       <c r="AF89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,28 +7706,29 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -7531,11 +7752,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -7543,22 +7764,22 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7578,8 +7799,11 @@
       <c r="AF91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,44 +7989,47 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -7807,11 +8037,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -7822,17 +8052,17 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7845,8 +8075,8 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>4</v>
+      <c r="AD94" s="3">
+        <v>0</v>
       </c>
       <c r="AE94" s="3" t="s">
         <v>4</v>
@@ -7854,8 +8084,11 @@
       <c r="AF94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,91 +8499,94 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD100" s="3">
-        <v>0</v>
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE100" s="3">
         <v>0</v>
@@ -8348,8 +8594,11 @@
       <c r="AF100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,77 +8689,80 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1000</v>
       </c>
       <c r="F102" s="3">
         <v>-1000</v>
       </c>
       <c r="G102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -8518,11 +8770,11 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
@@ -8530,6 +8782,9 @@
         <v>0</v>
       </c>
       <c r="AF102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="3">
         <v>0</v>
       </c>
     </row>
